--- a/progressivity_pres/payoffs_table.xlsx
+++ b/progressivity_pres/payoffs_table.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,21 @@
       <c r="G1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -464,18 +479,33 @@
         <v>45</v>
       </c>
       <c r="C2" t="n">
+        <v>59.528</v>
+      </c>
+      <c r="D2" t="n">
         <v>71.88</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>83.89700000000001</v>
+      </c>
+      <c r="F2" t="n">
         <v>98.053</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>114.98</v>
+      </c>
+      <c r="H2" t="n">
         <v>115.604</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>100.304</v>
+      </c>
+      <c r="J2" t="n">
         <v>85.004</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>69.70399999999999</v>
+      </c>
+      <c r="L2" t="n">
         <v>54.404</v>
       </c>
     </row>
@@ -489,18 +519,33 @@
         <v>75</v>
       </c>
       <c r="C3" t="n">
+        <v>98.307</v>
+      </c>
+      <c r="D3" t="n">
         <v>116.82</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>132.38</v>
+      </c>
+      <c r="F3" t="n">
         <v>147.463</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>162.699</v>
+      </c>
+      <c r="H3" t="n">
         <v>156.404</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
+        <v>130.904</v>
+      </c>
+      <c r="J3" t="n">
         <v>105.404</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
+        <v>79.904</v>
+      </c>
+      <c r="L3" t="n">
         <v>54.404</v>
       </c>
     </row>
@@ -514,18 +559,33 @@
         <v>125</v>
       </c>
       <c r="C4" t="n">
+        <v>162.938</v>
+      </c>
+      <c r="D4" t="n">
         <v>191.72</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>213.187</v>
+      </c>
+      <c r="F4" t="n">
         <v>229.813</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>242.23</v>
+      </c>
+      <c r="H4" t="n">
         <v>224.404</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>181.904</v>
+      </c>
+      <c r="J4" t="n">
         <v>139.404</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>96.904</v>
+      </c>
+      <c r="L4" t="n">
         <v>54.404</v>
       </c>
     </row>
@@ -539,18 +599,33 @@
         <v>200</v>
       </c>
       <c r="C5" t="n">
+        <v>259.885</v>
+      </c>
+      <c r="D5" t="n">
         <v>304.07</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>334.396</v>
+      </c>
+      <c r="F5" t="n">
         <v>353.338</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
+        <v>361.527</v>
+      </c>
+      <c r="H5" t="n">
         <v>326.404</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
+        <v>258.404</v>
+      </c>
+      <c r="J5" t="n">
         <v>190.404</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
+        <v>122.404</v>
+      </c>
+      <c r="L5" t="n">
         <v>54.404</v>
       </c>
     </row>
@@ -564,18 +639,33 @@
         <v>400</v>
       </c>
       <c r="C6" t="n">
+        <v>518.41</v>
+      </c>
+      <c r="D6" t="n">
         <v>603.67</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>657.621</v>
+      </c>
+      <c r="F6" t="n">
         <v>682.7380000000001</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>679.652</v>
+      </c>
+      <c r="H6" t="n">
         <v>598.404</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
+        <v>462.404</v>
+      </c>
+      <c r="J6" t="n">
         <v>326.404</v>
       </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
+        <v>190.404</v>
+      </c>
+      <c r="L6" t="n">
         <v>54.404</v>
       </c>
     </row>
@@ -589,18 +679,33 @@
         <v>625</v>
       </c>
       <c r="C7" t="n">
+        <v>809.251</v>
+      </c>
+      <c r="D7" t="n">
         <v>940.72</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>1021.249</v>
+      </c>
+      <c r="F7" t="n">
         <v>1053.313</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
+        <v>1037.543</v>
+      </c>
+      <c r="H7" t="n">
         <v>904.404</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
+        <v>691.904</v>
+      </c>
+      <c r="J7" t="n">
         <v>479.404</v>
       </c>
-      <c r="G7" t="n">
+      <c r="K7" t="n">
+        <v>266.904</v>
+      </c>
+      <c r="L7" t="n">
         <v>54.404</v>
       </c>
     </row>

--- a/progressivity_pres/payoffs_table.xlsx
+++ b/progressivity_pres/payoffs_table.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Archives\Trabajo\GECE - LEEX\Kristian\Brown\klo_lp_apps\MoneyPolitics\progressivity_pres\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD30FBC9-52BE-4CDC-B468-B2ED0B41CBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>0%</t>
   </si>
@@ -106,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,7 +112,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,14 +164,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -462,16 +451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,51 +523,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2">
-        <v>25.422999999999998</v>
+        <v>25.423</v>
       </c>
       <c r="C2">
-        <v>189.12899999999999</v>
+        <v>189.129</v>
       </c>
       <c r="D2">
-        <v>313.57400000000001</v>
+        <v>313.574</v>
       </c>
       <c r="E2">
-        <v>416.78699999999998</v>
+        <v>416.787</v>
       </c>
       <c r="F2">
-        <v>503.41800000000001</v>
+        <v>503.418</v>
       </c>
       <c r="G2">
-        <v>575.83600000000001</v>
+        <v>575.836</v>
       </c>
       <c r="H2">
-        <v>635.57000000000005</v>
+        <v>635.5700000000001</v>
       </c>
       <c r="I2">
-        <v>683.70699999999999</v>
+        <v>683.707</v>
       </c>
       <c r="J2">
-        <v>720.97699999999998</v>
+        <v>720.977</v>
       </c>
       <c r="K2">
         <v>747.673</v>
       </c>
       <c r="L2">
-        <v>763.55499999999995</v>
+        <v>763.5549999999999</v>
       </c>
       <c r="M2">
         <v>767.86</v>
       </c>
       <c r="N2">
-        <v>700.06100000000004</v>
+        <v>700.061</v>
       </c>
       <c r="O2">
-        <v>630.78300000000002</v>
+        <v>630.783</v>
       </c>
       <c r="P2">
         <v>560</v>
@@ -589,22 +576,22 @@
         <v>487.416</v>
       </c>
       <c r="R2">
-        <v>412.60399999999998</v>
+        <v>412.604</v>
       </c>
       <c r="S2">
-        <v>334.90100000000001</v>
+        <v>334.901</v>
       </c>
       <c r="T2">
-        <v>253.12799999999999</v>
+        <v>253.128</v>
       </c>
       <c r="U2">
-        <v>164.65299999999999</v>
+        <v>164.653</v>
       </c>
       <c r="V2">
-        <v>54.404000000000003</v>
+        <v>54.404</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -612,28 +599,28 @@
         <v>39.247</v>
       </c>
       <c r="C3">
-        <v>291.67099999999999</v>
+        <v>291.671</v>
       </c>
       <c r="D3">
-        <v>483.33499999999998</v>
+        <v>483.335</v>
       </c>
       <c r="E3">
-        <v>641.99099999999999</v>
+        <v>641.991</v>
       </c>
       <c r="F3">
-        <v>774.71199999999999</v>
+        <v>774.712</v>
       </c>
       <c r="G3">
-        <v>885.01099999999997</v>
+        <v>885.011</v>
       </c>
       <c r="H3">
-        <v>975.07399999999996</v>
+        <v>975.074</v>
       </c>
       <c r="I3">
-        <v>1046.3989999999999</v>
+        <v>1046.399</v>
       </c>
       <c r="J3">
-        <v>1099.9780000000001</v>
+        <v>1099.978</v>
       </c>
       <c r="K3">
         <v>1136.27</v>
@@ -642,7 +629,7 @@
         <v>1155.123</v>
       </c>
       <c r="M3">
-        <v>1155.8040000000001</v>
+        <v>1155.804</v>
       </c>
       <c r="N3">
         <v>1051.124</v>
@@ -651,13 +638,13 @@
         <v>944.178</v>
       </c>
       <c r="P3">
-        <v>834.90800000000002</v>
+        <v>834.908</v>
       </c>
       <c r="Q3">
-        <v>722.85699999999997</v>
+        <v>722.857</v>
       </c>
       <c r="R3">
-        <v>607.36900000000003</v>
+        <v>607.369</v>
       </c>
       <c r="S3">
         <v>487.416</v>
@@ -666,98 +653,98 @@
         <v>361.18</v>
       </c>
       <c r="U3">
-        <v>224.59899999999999</v>
+        <v>224.599</v>
       </c>
       <c r="V3">
-        <v>54.404000000000003</v>
+        <v>54.404</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4">
-        <v>60.585999999999999</v>
+        <v>60.586</v>
       </c>
       <c r="C4">
-        <v>449.96800000000002</v>
+        <v>449.968</v>
       </c>
       <c r="D4">
         <v>745.399</v>
       </c>
       <c r="E4">
-        <v>989.64499999999998</v>
+        <v>989.645</v>
       </c>
       <c r="F4">
-        <v>1193.5160000000001</v>
+        <v>1193.516</v>
       </c>
       <c r="G4">
-        <v>1362.2940000000001</v>
+        <v>1362.294</v>
       </c>
       <c r="H4">
-        <v>1499.1769999999999</v>
+        <v>1499.177</v>
       </c>
       <c r="I4">
         <v>1606.297</v>
       </c>
       <c r="J4">
-        <v>1685.0530000000001</v>
+        <v>1685.053</v>
       </c>
       <c r="K4">
-        <v>1736.1590000000001</v>
+        <v>1736.159</v>
       </c>
       <c r="L4">
         <v>1759.6</v>
       </c>
       <c r="M4">
-        <v>1754.6859999999999</v>
+        <v>1754.686</v>
       </c>
       <c r="N4">
         <v>1593.07</v>
       </c>
       <c r="O4">
-        <v>1427.9760000000001</v>
+        <v>1427.976</v>
       </c>
       <c r="P4">
-        <v>1259.2919999999999</v>
+        <v>1259.292</v>
       </c>
       <c r="Q4">
         <v>1086.316</v>
       </c>
       <c r="R4">
-        <v>908.03300000000002</v>
+        <v>908.033</v>
       </c>
       <c r="S4">
-        <v>722.85699999999997</v>
+        <v>722.857</v>
       </c>
       <c r="T4">
-        <v>527.98400000000004</v>
+        <v>527.984</v>
       </c>
       <c r="U4">
-        <v>317.13900000000001</v>
+        <v>317.139</v>
       </c>
       <c r="V4">
-        <v>54.404000000000003</v>
+        <v>54.404</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5">
-        <v>90.338999999999999</v>
+        <v>90.339</v>
       </c>
       <c r="C5">
-        <v>670.67499999999995</v>
+        <v>670.675</v>
       </c>
       <c r="D5">
-        <v>1110.7840000000001</v>
+        <v>1110.784</v>
       </c>
       <c r="E5">
-        <v>1474.3630000000001</v>
+        <v>1474.363</v>
       </c>
       <c r="F5">
-        <v>1777.4359999999999</v>
+        <v>1777.436</v>
       </c>
       <c r="G5">
         <v>2027.749</v>
@@ -769,22 +756,22 @@
         <v>2386.94</v>
       </c>
       <c r="J5">
-        <v>2500.8000000000002</v>
+        <v>2500.8</v>
       </c>
       <c r="K5">
         <v>2572.558</v>
       </c>
       <c r="L5">
-        <v>2602.3969999999999</v>
+        <v>2602.397</v>
       </c>
       <c r="M5">
-        <v>2589.6819999999998</v>
+        <v>2589.682</v>
       </c>
       <c r="N5">
-        <v>2348.6840000000002</v>
+        <v>2348.684</v>
       </c>
       <c r="O5">
-        <v>2102.5140000000001</v>
+        <v>2102.514</v>
       </c>
       <c r="P5">
         <v>1850.992</v>
@@ -793,661 +780,158 @@
         <v>1593.07</v>
       </c>
       <c r="R5">
-        <v>1327.2360000000001</v>
+        <v>1327.236</v>
       </c>
       <c r="S5">
         <v>1051.124</v>
       </c>
       <c r="T5">
-        <v>760.55200000000002</v>
+        <v>760.552</v>
       </c>
       <c r="U5">
-        <v>446.16399999999999</v>
+        <v>446.164</v>
       </c>
       <c r="V5">
-        <v>54.404000000000003</v>
+        <v>54.404</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6">
-        <v>162.83600000000001</v>
+        <v>162.836</v>
       </c>
       <c r="C6">
-        <v>1208.4590000000001</v>
+        <v>1208.459</v>
       </c>
       <c r="D6">
-        <v>2001.0989999999999</v>
+        <v>2001.099</v>
       </c>
       <c r="E6">
         <v>2655.451</v>
       </c>
       <c r="F6">
-        <v>3200.2440000000001</v>
+        <v>3200.244</v>
       </c>
       <c r="G6">
-        <v>3649.2280000000001</v>
+        <v>3649.228</v>
       </c>
       <c r="H6">
-        <v>4010.4549999999999</v>
+        <v>4010.455</v>
       </c>
       <c r="I6">
         <v>4289.09</v>
       </c>
       <c r="J6">
-        <v>4488.4830000000002</v>
+        <v>4488.483</v>
       </c>
       <c r="K6">
-        <v>4610.5659999999998</v>
+        <v>4610.566</v>
       </c>
       <c r="L6">
-        <v>4655.9920000000002</v>
+        <v>4655.992</v>
       </c>
       <c r="M6">
-        <v>4624.2690000000002</v>
+        <v>4624.269</v>
       </c>
       <c r="N6">
-        <v>4189.8459999999995</v>
+        <v>4189.846</v>
       </c>
       <c r="O6">
-        <v>3746.1239999999998</v>
+        <v>3746.124</v>
       </c>
       <c r="P6">
-        <v>3292.7559999999999</v>
+        <v>3292.756</v>
       </c>
       <c r="Q6">
-        <v>2827.8519999999999</v>
+        <v>2827.852</v>
       </c>
       <c r="R6">
-        <v>2348.6840000000002</v>
+        <v>2348.684</v>
       </c>
       <c r="S6">
         <v>1850.992</v>
       </c>
       <c r="T6">
-        <v>1327.2360000000001</v>
+        <v>1327.236</v>
       </c>
       <c r="U6">
-        <v>760.55200000000002</v>
+        <v>760.552</v>
       </c>
       <c r="V6">
-        <v>54.404000000000003</v>
+        <v>54.404</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B7">
-        <v>237.95699999999999</v>
+        <v>237.957</v>
       </c>
       <c r="C7">
         <v>1765.704</v>
       </c>
       <c r="D7">
-        <v>2923.6289999999999</v>
+        <v>2923.629</v>
       </c>
       <c r="E7">
         <v>3879.277</v>
       </c>
       <c r="F7">
-        <v>4674.5360000000001</v>
+        <v>4674.536</v>
       </c>
       <c r="G7">
         <v>5329.38</v>
       </c>
       <c r="H7">
-        <v>5855.4269999999997</v>
+        <v>5855.427</v>
       </c>
       <c r="I7">
-        <v>6260.0709999999999</v>
+        <v>6260.071</v>
       </c>
       <c r="J7">
-        <v>6548.0929999999998</v>
+        <v>6548.093</v>
       </c>
       <c r="K7">
-        <v>6722.3209999999999</v>
+        <v>6722.321</v>
       </c>
       <c r="L7">
-        <v>6783.8990000000003</v>
+        <v>6783.899</v>
       </c>
       <c r="M7">
-        <v>6732.4790000000003</v>
+        <v>6732.479</v>
       </c>
       <c r="N7">
-        <v>6097.6319999999996</v>
+        <v>6097.632</v>
       </c>
       <c r="O7">
         <v>5449.21</v>
       </c>
       <c r="P7">
-        <v>4786.6909999999998</v>
+        <v>4786.691</v>
       </c>
       <c r="Q7">
-        <v>4107.3140000000003</v>
+        <v>4107.314</v>
       </c>
       <c r="R7">
-        <v>3407.0949999999998</v>
+        <v>3407.095</v>
       </c>
       <c r="S7">
-        <v>2679.8040000000001</v>
+        <v>2679.804</v>
       </c>
       <c r="T7">
-        <v>1914.4259999999999</v>
+        <v>1914.426</v>
       </c>
       <c r="U7">
         <v>1086.316</v>
       </c>
       <c r="V7">
-        <v>54.404000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>25.422999999999998</v>
-      </c>
-      <c r="C12">
-        <v>39.247</v>
-      </c>
-      <c r="D12">
-        <v>60.585999999999999</v>
-      </c>
-      <c r="E12">
-        <v>90.338999999999999</v>
-      </c>
-      <c r="F12">
-        <v>162.83600000000001</v>
-      </c>
-      <c r="G12">
-        <v>237.95699999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>189.12899999999999</v>
-      </c>
-      <c r="C13">
-        <v>291.67099999999999</v>
-      </c>
-      <c r="D13">
-        <v>449.96800000000002</v>
-      </c>
-      <c r="E13">
-        <v>670.67499999999995</v>
-      </c>
-      <c r="F13">
-        <v>1208.4590000000001</v>
-      </c>
-      <c r="G13">
-        <v>1765.704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>313.57400000000001</v>
-      </c>
-      <c r="C14">
-        <v>483.33499999999998</v>
-      </c>
-      <c r="D14">
-        <v>745.399</v>
-      </c>
-      <c r="E14">
-        <v>1110.7840000000001</v>
-      </c>
-      <c r="F14">
-        <v>2001.0989999999999</v>
-      </c>
-      <c r="G14">
-        <v>2923.6289999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>416.78699999999998</v>
-      </c>
-      <c r="C15">
-        <v>641.99099999999999</v>
-      </c>
-      <c r="D15">
-        <v>989.64499999999998</v>
-      </c>
-      <c r="E15">
-        <v>1474.3630000000001</v>
-      </c>
-      <c r="F15">
-        <v>2655.451</v>
-      </c>
-      <c r="G15">
-        <v>3879.277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>503.41800000000001</v>
-      </c>
-      <c r="C16">
-        <v>774.71199999999999</v>
-      </c>
-      <c r="D16">
-        <v>1193.5160000000001</v>
-      </c>
-      <c r="E16">
-        <v>1777.4359999999999</v>
-      </c>
-      <c r="F16">
-        <v>3200.2440000000001</v>
-      </c>
-      <c r="G16">
-        <v>4674.5360000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>575.83600000000001</v>
-      </c>
-      <c r="C17">
-        <v>885.01099999999997</v>
-      </c>
-      <c r="D17">
-        <v>1362.2940000000001</v>
-      </c>
-      <c r="E17">
-        <v>2027.749</v>
-      </c>
-      <c r="F17">
-        <v>3649.2280000000001</v>
-      </c>
-      <c r="G17">
-        <v>5329.38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>635.57000000000005</v>
-      </c>
-      <c r="C18">
-        <v>975.07399999999996</v>
-      </c>
-      <c r="D18">
-        <v>1499.1769999999999</v>
-      </c>
-      <c r="E18">
-        <v>2229.913</v>
-      </c>
-      <c r="F18">
-        <v>4010.4549999999999</v>
-      </c>
-      <c r="G18">
-        <v>5855.4269999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>683.70699999999999</v>
-      </c>
-      <c r="C19">
-        <v>1046.3989999999999</v>
-      </c>
-      <c r="D19">
-        <v>1606.297</v>
-      </c>
-      <c r="E19">
-        <v>2386.94</v>
-      </c>
-      <c r="F19">
-        <v>4289.09</v>
-      </c>
-      <c r="G19">
-        <v>6260.0709999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>720.97699999999998</v>
-      </c>
-      <c r="C20">
-        <v>1099.9780000000001</v>
-      </c>
-      <c r="D20">
-        <v>1685.0530000000001</v>
-      </c>
-      <c r="E20">
-        <v>2500.8000000000002</v>
-      </c>
-      <c r="F20">
-        <v>4488.4830000000002</v>
-      </c>
-      <c r="G20">
-        <v>6548.0929999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>747.673</v>
-      </c>
-      <c r="C21">
-        <v>1136.27</v>
-      </c>
-      <c r="D21">
-        <v>1736.1590000000001</v>
-      </c>
-      <c r="E21">
-        <v>2572.558</v>
-      </c>
-      <c r="F21">
-        <v>4610.5659999999998</v>
-      </c>
-      <c r="G21">
-        <v>6722.3209999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>763.55499999999995</v>
-      </c>
-      <c r="C22">
-        <v>1155.123</v>
-      </c>
-      <c r="D22">
-        <v>1759.6</v>
-      </c>
-      <c r="E22">
-        <v>2602.3969999999999</v>
-      </c>
-      <c r="F22">
-        <v>4655.9920000000002</v>
-      </c>
-      <c r="G22">
-        <v>6783.8990000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>767.86</v>
-      </c>
-      <c r="C23">
-        <v>1155.8040000000001</v>
-      </c>
-      <c r="D23">
-        <v>1754.6859999999999</v>
-      </c>
-      <c r="E23">
-        <v>2589.6819999999998</v>
-      </c>
-      <c r="F23">
-        <v>4624.2690000000002</v>
-      </c>
-      <c r="G23">
-        <v>6732.4790000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>700.06100000000004</v>
-      </c>
-      <c r="C24">
-        <v>1051.124</v>
-      </c>
-      <c r="D24">
-        <v>1593.07</v>
-      </c>
-      <c r="E24">
-        <v>2348.6840000000002</v>
-      </c>
-      <c r="F24">
-        <v>4189.8459999999995</v>
-      </c>
-      <c r="G24">
-        <v>6097.6319999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <v>630.78300000000002</v>
-      </c>
-      <c r="C25">
-        <v>944.178</v>
-      </c>
-      <c r="D25">
-        <v>1427.9760000000001</v>
-      </c>
-      <c r="E25">
-        <v>2102.5140000000001</v>
-      </c>
-      <c r="F25">
-        <v>3746.1239999999998</v>
-      </c>
-      <c r="G25">
-        <v>5449.21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26">
-        <v>560</v>
-      </c>
-      <c r="C26">
-        <v>834.90800000000002</v>
-      </c>
-      <c r="D26">
-        <v>1259.2919999999999</v>
-      </c>
-      <c r="E26">
-        <v>1850.992</v>
-      </c>
-      <c r="F26">
-        <v>3292.7559999999999</v>
-      </c>
-      <c r="G26">
-        <v>4786.6909999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <v>487.416</v>
-      </c>
-      <c r="C27">
-        <v>722.85699999999997</v>
-      </c>
-      <c r="D27">
-        <v>1086.316</v>
-      </c>
-      <c r="E27">
-        <v>1593.07</v>
-      </c>
-      <c r="F27">
-        <v>2827.8519999999999</v>
-      </c>
-      <c r="G27">
-        <v>4107.3140000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <v>412.60399999999998</v>
-      </c>
-      <c r="C28">
-        <v>607.36900000000003</v>
-      </c>
-      <c r="D28">
-        <v>908.03300000000002</v>
-      </c>
-      <c r="E28">
-        <v>1327.2360000000001</v>
-      </c>
-      <c r="F28">
-        <v>2348.6840000000002</v>
-      </c>
-      <c r="G28">
-        <v>3407.0949999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29">
-        <v>334.90100000000001</v>
-      </c>
-      <c r="C29">
-        <v>487.416</v>
-      </c>
-      <c r="D29">
-        <v>722.85699999999997</v>
-      </c>
-      <c r="E29">
-        <v>1051.124</v>
-      </c>
-      <c r="F29">
-        <v>1850.992</v>
-      </c>
-      <c r="G29">
-        <v>2679.8040000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30">
-        <v>253.12799999999999</v>
-      </c>
-      <c r="C30">
-        <v>361.18</v>
-      </c>
-      <c r="D30">
-        <v>527.98400000000004</v>
-      </c>
-      <c r="E30">
-        <v>760.55200000000002</v>
-      </c>
-      <c r="F30">
-        <v>1327.2360000000001</v>
-      </c>
-      <c r="G30">
-        <v>1914.4259999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31">
-        <v>164.65299999999999</v>
-      </c>
-      <c r="C31">
-        <v>224.59899999999999</v>
-      </c>
-      <c r="D31">
-        <v>317.13900000000001</v>
-      </c>
-      <c r="E31">
-        <v>446.16399999999999</v>
-      </c>
-      <c r="F31">
-        <v>760.55200000000002</v>
-      </c>
-      <c r="G31">
-        <v>1086.316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32">
-        <v>54.404000000000003</v>
-      </c>
-      <c r="C32">
-        <v>54.404000000000003</v>
-      </c>
-      <c r="D32">
-        <v>54.404000000000003</v>
-      </c>
-      <c r="E32">
-        <v>54.404000000000003</v>
-      </c>
-      <c r="F32">
-        <v>54.404000000000003</v>
-      </c>
-      <c r="G32">
-        <v>54.404000000000003</v>
+        <v>54.404</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>